--- a/excel-basics/standardising-data/Reseller_Information/Case Study - Reseller Information.xlsx
+++ b/excel-basics/standardising-data/Reseller_Information/Case Study - Reseller Information.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6D87E-35D6-4B47-B14E-6A618F8D342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB64448E-3E98-4314-B4A3-29258E9668C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C734CD86-EB2A-4E32-95E7-68DCEF922AF9}"/>
   </bookViews>
@@ -13627,7 +13627,7 @@
   <dimension ref="A1:G428"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D396" sqref="D396"/>
     </sheetView>
   </sheetViews>

--- a/excel-basics/standardising-data/Reseller_Information/Case Study - Reseller Information.xlsx
+++ b/excel-basics/standardising-data/Reseller_Information/Case Study - Reseller Information.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB64448E-3E98-4314-B4A3-29258E9668C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215AFB3-7D32-4B08-A323-A1B813C7127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C734CD86-EB2A-4E32-95E7-68DCEF922AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C734CD86-EB2A-4E32-95E7-68DCEF922AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="1" r:id="rId1"/>
@@ -5036,9 +5036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D466E41-E056-4ABA-A7C5-DAC35220A460}">
   <dimension ref="A1:M428"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D195" sqref="D195"/>
+      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13626,9 +13626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABAAF30-DCEE-4C38-8F41-F670B21F5A07}">
   <dimension ref="A1:G428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D396" sqref="D396"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
